--- a/statistics/R/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.011685792935792916</v>
+        <v>-0.0058428964678964579</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.018959435626102333</v>
+        <v>-0.0094797178130511667</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.035204762908747744</v>
+        <v>0.017602381454373872</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.037414965986394544</v>
+        <v>0.018707482993197272</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.017729591836734671</v>
+        <v>0.0088647959183673353</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0084156469605386475</v>
+        <v>-0.0042078234802693237</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.019823978974305823</v>
+        <v>-0.0099119894871529113</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.019387755102040827</v>
+        <v>0.0096938775510204134</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.047679071628651482</v>
+        <v>-0.023839535814325741</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0089480236539060121</v>
+        <v>0.004474011826953006</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.033769063180827952</v>
+        <v>0.016884531590413976</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.043825834427338201</v>
+        <v>0.0219129172136691</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0014110749404866729</v>
+        <v>-0.00070553747024333646</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0064327485380116789</v>
+        <v>-0.0032163742690058394</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0078526087298016745</v>
+        <v>0.0039263043649008372</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.039094650205761305</v>
+        <v>0.019547325102880653</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.013579473374795037</v>
+        <v>-0.0067897366873975185</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.03931403931403929</v>
+        <v>-0.019657019657019645</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.001640415926130151</v>
+        <v>0.00082020796306507548</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.006399978622200847</v>
+        <v>0.0031999893111004235</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.018993562337215608</v>
+        <v>-0.0094967811686078041</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.022566939233605893</v>
+        <v>0.011283469616802946</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0065699891067537985</v>
+        <v>0.0032849945533768993</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0038220675475577337</v>
+        <v>0.0019110337737788669</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.01295434628767958</v>
+        <v>-0.00647717314383979</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0064122622366349913</v>
+        <v>0.0032061311183174956</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.019171304885590573</v>
+        <v>-0.0095856524427952866</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0042794895736072702</v>
+        <v>0.0021397447868036351</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0041858184715327929</v>
+        <v>-0.0020929092357663964</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0089295644851200839</v>
+        <v>-0.004464782242560042</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.018301706647571359</v>
+        <v>-0.0091508533237856793</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.032130360561733046</v>
+        <v>-0.016065180280866523</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.018722185388852008</v>
+        <v>0.0093610926944260042</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.024187452758881317</v>
+        <v>-0.012093726379440659</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.018301209372637961</v>
+        <v>-0.0091506046863189805</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0011379860586210044</v>
+        <v>-0.00056899302931050222</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.028267763561881154</v>
+        <v>-0.014133881780940577</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.00047483380816709664</v>
+        <v>-0.00023741690408354832</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.035311161501637683</v>
+        <v>0.017655580750818842</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0014414597747930691</v>
+        <v>0.00072072988739653454</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.010042695756981468</v>
+        <v>0.0050213478784907339</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.020465902410346903</v>
+        <v>0.010232951205173452</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0024526014109347294</v>
+        <v>0.0012263007054673647</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0057176992660863679</v>
+        <v>-0.002858849633043184</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.050040554942515747</v>
+        <v>-0.025020277471257873</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.031002771478961993</v>
+        <v>0.015501385739480997</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0065359477124183052</v>
+        <v>-0.0032679738562091526</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.037303907917942969</v>
+        <v>0.018651953958971484</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.01493041661108882</v>
+        <v>-0.0074652083055444102</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0018100807574492617</v>
+        <v>-0.00090504037872463083</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.010459439030867573</v>
+        <v>0.0052297195154337867</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.014252367613712097</v>
+        <v>-0.0071261838068560485</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.026047873270095556</v>
+        <v>-0.013023936635047778</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.013034102529900893</v>
+        <v>0.0065170512649504464</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.015016619183285868</v>
+        <v>-0.0075083095916429338</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.00048732943469781409</v>
+        <v>-0.00024366471734890705</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.024238524238524239</v>
+        <v>0.01211926211926212</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.038660088660088632</v>
+        <v>-0.019330044330044316</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.038161375661375674</v>
+        <v>-0.019080687830687837</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.00066702844480617807</v>
+        <v>0.00033351422240308903</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.023770251840427248</v>
+        <v>0.011885125920213624</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.042060116621520066</v>
+        <v>0.021030058310760033</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.00048824334538616343</v>
+        <v>-0.00024412167269308171</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.051271034729681308</v>
+        <v>0.025635517364840654</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.034978017434157738</v>
+        <v>-0.017489008717078869</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.024080857414190804</v>
+        <v>-0.012040428707095402</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.027408264250369518</v>
+        <v>0.013704132125184759</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.0090000715000715104</v>
+        <v>0.0045000357500357552</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.043076441102756879</v>
+        <v>-0.02153822055137844</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.018386243386243395</v>
+        <v>-0.0091931216931216975</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0011814317369873151</v>
+        <v>-0.00059071586849365754</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0088076316146491751</v>
+        <v>0.0044038158073245876</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.018512219702695898</v>
+        <v>-0.0092561098513479489</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.02219282774838327</v>
+        <v>0.011096413874191635</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.022301893730465122</v>
+        <v>-0.011150946865232561</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.023672832496361929</v>
+        <v>-0.011836416248180964</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>0.027742027742027803</v>
+        <v>0.013871013871013901</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.0066137566137566828</v>
+        <v>0.0033068783068783414</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.025148525148525169</v>
+        <v>-0.012574262574262585</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.028294167183056107</v>
+        <v>-0.014147083591528054</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.028094044635397997</v>
+        <v>0.014047022317698998</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.070339136128609842</v>
+        <v>-0.035169568064304921</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0078115421252676065</v>
+        <v>0.0039057710626338032</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.0024827024827025479</v>
+        <v>-0.0012413512413512739</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.035118451785118493</v>
+        <v>0.017559225892559246</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0053780284043441762</v>
+        <v>0.0026890142021720881</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.003734503734503708</v>
+        <v>-0.001867251867251854</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.013575605680868796</v>
+        <v>0.0067878028404343982</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.018425351758685066</v>
+        <v>-0.0092126758793425328</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.014260642528616391</v>
+        <v>-0.0071303212643081954</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.020061728395061706</v>
+        <v>-0.010030864197530853</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.039308588932649102</v>
+        <v>-0.019654294466324551</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.02659802659802657</v>
+        <v>-0.013299013299013285</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.019059352392685747</v>
+        <v>0.0095296761963428733</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.030459030459030423</v>
+        <v>0.015229515229515211</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.014540333984778442</v>
+        <v>0.0072701669923892209</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.05347086852934807</v>
+        <v>-0.026735434264674035</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.016913315033615817</v>
+        <v>-0.0084566575168079083</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.020857108275408903</v>
+        <v>-0.010428554137704452</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.033287489169842088</v>
+        <v>0.016643744584921044</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.032004283194759342</v>
+        <v>-0.016002141597379671</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.037566137566137581</v>
+        <v>-0.01878306878306879</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.028481145544637626</v>
+        <v>-0.014240572772318813</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.049355642191899501</v>
+        <v>-0.024677821095949751</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.044761030872141921</v>
+        <v>-0.022380515436070961</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.022802103297459297</v>
+        <v>-0.011401051648729649</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.0090702947845805182</v>
+        <v>0.0045351473922902591</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.0024748250554703088</v>
+        <v>0.0012374125277351544</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.028030699459270836</v>
+        <v>0.014015349729635418</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.057773939352886661</v>
+        <v>0.02888696967644333</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.0098358431691765169</v>
+        <v>0.0049179215845882585</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.010759574485064732</v>
+        <v>0.0053797872425323662</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0065798399131732355</v>
+        <v>-0.0032899199565866177</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.016284291494375491</v>
+        <v>-0.0081421457471877456</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.020509520509520512</v>
+        <v>0.010254760254760256</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.073381459346371608</v>
+        <v>0.036690729673185804</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.022495022495022526</v>
+        <v>-0.011247511247511263</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.033472213296774689</v>
+        <v>-0.016736106648387344</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.012360763018657739</v>
+        <v>0.0061803815093288694</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.010910177576844204</v>
+        <v>-0.0054550887884221022</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.011883732471967723</v>
+        <v>0.0059418662359838614</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.034207818930041128</v>
+        <v>-0.017103909465020564</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.023666726791726822</v>
+        <v>-0.011833363395863411</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.0018387471947843292</v>
+        <v>0.00091937359739216462</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.013756613756613745</v>
+        <v>0.0068783068783068724</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.020881993104215318</v>
+        <v>-0.010440996552107659</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0069633125188681422</v>
+        <v>-0.0034816562594340711</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0030397744683458572</v>
+        <v>-0.0015198872341729286</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.017383925278662143</v>
+        <v>-0.0086919626393310717</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.027091193757860454</v>
+        <v>0.013545596878930227</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.024402221770642801</v>
+        <v>0.012201110885321401</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.026211873638344207</v>
+        <v>-0.013105936819172104</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.015944515944515958</v>
+        <v>0.0079722579722579789</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.060401776045050842</v>
+        <v>-0.030200888022525421</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-6.7833401166728091e-05</v>
+        <v>-3.3916700583364046e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.058131439710387117</v>
+        <v>-0.029065719855193559</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.0069689894251298012</v>
+        <v>0.0034844947125649006</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.013941549029268335</v>
+        <v>0.0069707745146341676</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0050518498794360767</v>
+        <v>-0.0025259249397180383</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.016874016874016906</v>
+        <v>-0.008437008437008453</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.017543517543517573</v>
+        <v>-0.0087717587717587864</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.039611039611039595</v>
+        <v>-0.019805519805519797</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.014434595386976334</v>
+        <v>0.0072172976934881672</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0010255791505791867</v>
+        <v>-0.00051278957528959335</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.016928896314861275</v>
+        <v>0.0084644481574306374</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.027018855590284163</v>
+        <v>-0.013509427795142082</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.0018862763960803275</v>
+        <v>-0.00094313819804016374</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0014195956160241441</v>
+        <v>0.00070979780801207204</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.00034481978926431678</v>
+        <v>0.00017240989463215839</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.037931839402427642</v>
+        <v>-0.018965919701213821</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.0040824996965347915</v>
+        <v>-0.0020412498482673958</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.03068628361026024</v>
+        <v>-0.01534314180513012</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.046082817511388957</v>
+        <v>0.023041408755694479</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.010510510510510496</v>
+        <v>-0.0052552552552552478</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.01119251119251119</v>
+        <v>0.0055962555962555949</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0022165022165021864</v>
+        <v>-0.0011082511082510932</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.015293524817334397</v>
+        <v>0.0076467624086671987</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.060998786805238348</v>
+        <v>0.030499393402619174</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.069478208367097255</v>
+        <v>0.034739104183548628</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.013822751322751348</v>
+        <v>-0.0069113756613756738</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.05064491746519395</v>
+        <v>-0.025322458732596975</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.014005602240896337</v>
+        <v>-0.0070028011204481683</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.017543859649122778</v>
+        <v>-0.0087719298245613891</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.014543847877181243</v>
+        <v>0.0072719239385906215</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0025819470263914457</v>
+        <v>-0.0012909735131957228</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.0035218765868920698</v>
+        <v>-0.0017609382934460349</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.045549631263917034</v>
+        <v>0.022774815631958517</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0384670384670385</v>
+        <v>-0.01923351923351925</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.024951737451737399</v>
+        <v>0.0124758687258687</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0087533962533962173</v>
+        <v>-0.0043766981266981086</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.023189856523189833</v>
+        <v>-0.011594928261594917</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.024406549406549377</v>
+        <v>0.012203274703274689</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.026719576719576643</v>
+        <v>0.013359788359788322</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.012757118020275848</v>
+        <v>-0.0063785590101379241</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_beta/roiHumanBody_Within-PLI_beta.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0058428964678964579</v>
+        <v>-0.011685792935792916</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0094797178130511667</v>
+        <v>-0.018959435626102333</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.017602381454373872</v>
+        <v>0.035204762908747744</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.018707482993197272</v>
+        <v>0.037414965986394544</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0088647959183673353</v>
+        <v>0.017729591836734671</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0042078234802693237</v>
+        <v>-0.0084156469605386475</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0099119894871529113</v>
+        <v>-0.019823978974305823</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0096938775510204134</v>
+        <v>0.019387755102040827</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.023839535814325741</v>
+        <v>-0.047679071628651482</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.004474011826953006</v>
+        <v>0.0089480236539060121</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.016884531590413976</v>
+        <v>0.033769063180827952</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0219129172136691</v>
+        <v>0.043825834427338201</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.00070553747024333646</v>
+        <v>-0.0014110749404866729</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0032163742690058394</v>
+        <v>-0.0064327485380116789</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.0039263043649008372</v>
+        <v>0.0078526087298016745</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.019547325102880653</v>
+        <v>0.039094650205761305</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.0067897366873975185</v>
+        <v>-0.013579473374795037</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.019657019657019645</v>
+        <v>-0.03931403931403929</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.00082020796306507548</v>
+        <v>0.001640415926130151</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0031999893111004235</v>
+        <v>0.006399978622200847</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0094967811686078041</v>
+        <v>-0.018993562337215608</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.011283469616802946</v>
+        <v>0.022566939233605893</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0032849945533768993</v>
+        <v>0.0065699891067537985</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0019110337737788669</v>
+        <v>0.0038220675475577337</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.00647717314383979</v>
+        <v>-0.01295434628767958</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0032061311183174956</v>
+        <v>0.0064122622366349913</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0095856524427952866</v>
+        <v>-0.019171304885590573</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0021397447868036351</v>
+        <v>0.0042794895736072702</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0020929092357663964</v>
+        <v>-0.0041858184715327929</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.004464782242560042</v>
+        <v>-0.0089295644851200839</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0091508533237856793</v>
+        <v>-0.018301706647571359</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.016065180280866523</v>
+        <v>-0.032130360561733046</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.0093610926944260042</v>
+        <v>0.018722185388852008</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.012093726379440659</v>
+        <v>-0.024187452758881317</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.0091506046863189805</v>
+        <v>-0.018301209372637961</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.00056899302931050222</v>
+        <v>-0.0011379860586210044</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.014133881780940577</v>
+        <v>-0.028267763561881154</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.00023741690408354832</v>
+        <v>-0.00047483380816709664</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.017655580750818842</v>
+        <v>0.035311161501637683</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.00072072988739653454</v>
+        <v>0.0014414597747930691</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.0050213478784907339</v>
+        <v>0.010042695756981468</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.010232951205173452</v>
+        <v>0.020465902410346903</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0012263007054673647</v>
+        <v>0.0024526014109347294</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.002858849633043184</v>
+        <v>-0.0057176992660863679</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.025020277471257873</v>
+        <v>-0.050040554942515747</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.015501385739480997</v>
+        <v>0.031002771478961993</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0032679738562091526</v>
+        <v>-0.0065359477124183052</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.018651953958971484</v>
+        <v>0.037303907917942969</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.0074652083055444102</v>
+        <v>-0.01493041661108882</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.00090504037872463083</v>
+        <v>-0.0018100807574492617</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0052297195154337867</v>
+        <v>0.010459439030867573</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.0071261838068560485</v>
+        <v>-0.014252367613712097</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.013023936635047778</v>
+        <v>-0.026047873270095556</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.0065170512649504464</v>
+        <v>0.013034102529900893</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.0075083095916429338</v>
+        <v>-0.015016619183285868</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.00024366471734890705</v>
+        <v>-0.00048732943469781409</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.01211926211926212</v>
+        <v>0.024238524238524239</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.019330044330044316</v>
+        <v>-0.038660088660088632</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.019080687830687837</v>
+        <v>-0.038161375661375674</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>0.00033351422240308903</v>
+        <v>0.00066702844480617807</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.011885125920213624</v>
+        <v>0.023770251840427248</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.021030058310760033</v>
+        <v>0.042060116621520066</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.00024412167269308171</v>
+        <v>-0.00048824334538616343</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.025635517364840654</v>
+        <v>0.051271034729681308</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.017489008717078869</v>
+        <v>-0.034978017434157738</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.012040428707095402</v>
+        <v>-0.024080857414190804</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.013704132125184759</v>
+        <v>0.027408264250369518</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.0045000357500357552</v>
+        <v>0.0090000715000715104</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.02153822055137844</v>
+        <v>-0.043076441102756879</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.0091931216931216975</v>
+        <v>-0.018386243386243395</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.00059071586849365754</v>
+        <v>-0.0011814317369873151</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0044038158073245876</v>
+        <v>0.0088076316146491751</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0092561098513479489</v>
+        <v>-0.018512219702695898</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.011096413874191635</v>
+        <v>0.02219282774838327</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.011150946865232561</v>
+        <v>-0.022301893730465122</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.011836416248180964</v>
+        <v>-0.023672832496361929</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>0.013871013871013901</v>
+        <v>0.027742027742027803</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.0033068783068783414</v>
+        <v>0.0066137566137566828</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.012574262574262585</v>
+        <v>-0.025148525148525169</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.014147083591528054</v>
+        <v>-0.028294167183056107</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.014047022317698998</v>
+        <v>0.028094044635397997</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.035169568064304921</v>
+        <v>-0.070339136128609842</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0039057710626338032</v>
+        <v>0.0078115421252676065</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.0012413512413512739</v>
+        <v>-0.0024827024827025479</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.017559225892559246</v>
+        <v>0.035118451785118493</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0026890142021720881</v>
+        <v>0.0053780284043441762</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.001867251867251854</v>
+        <v>-0.003734503734503708</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>0.0067878028404343982</v>
+        <v>0.013575605680868796</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0092126758793425328</v>
+        <v>-0.018425351758685066</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0071303212643081954</v>
+        <v>-0.014260642528616391</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.010030864197530853</v>
+        <v>-0.020061728395061706</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.019654294466324551</v>
+        <v>-0.039308588932649102</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.013299013299013285</v>
+        <v>-0.02659802659802657</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0095296761963428733</v>
+        <v>0.019059352392685747</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.015229515229515211</v>
+        <v>0.030459030459030423</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.0072701669923892209</v>
+        <v>0.014540333984778442</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.026735434264674035</v>
+        <v>-0.05347086852934807</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0084566575168079083</v>
+        <v>-0.016913315033615817</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.010428554137704452</v>
+        <v>-0.020857108275408903</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.016643744584921044</v>
+        <v>0.033287489169842088</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.016002141597379671</v>
+        <v>-0.032004283194759342</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.01878306878306879</v>
+        <v>-0.037566137566137581</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.014240572772318813</v>
+        <v>-0.028481145544637626</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.024677821095949751</v>
+        <v>-0.049355642191899501</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.022380515436070961</v>
+        <v>-0.044761030872141921</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.011401051648729649</v>
+        <v>-0.022802103297459297</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.0045351473922902591</v>
+        <v>0.0090702947845805182</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>0.0012374125277351544</v>
+        <v>0.0024748250554703088</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.014015349729635418</v>
+        <v>0.028030699459270836</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.02888696967644333</v>
+        <v>0.057773939352886661</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.0049179215845882585</v>
+        <v>0.0098358431691765169</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0053797872425323662</v>
+        <v>0.010759574485064732</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0032899199565866177</v>
+        <v>-0.0065798399131732355</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0081421457471877456</v>
+        <v>-0.016284291494375491</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.010254760254760256</v>
+        <v>0.020509520509520512</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.036690729673185804</v>
+        <v>0.073381459346371608</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.011247511247511263</v>
+        <v>-0.022495022495022526</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.016736106648387344</v>
+        <v>-0.033472213296774689</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0061803815093288694</v>
+        <v>0.012360763018657739</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.0054550887884221022</v>
+        <v>-0.010910177576844204</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.0059418662359838614</v>
+        <v>0.011883732471967723</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.017103909465020564</v>
+        <v>-0.034207818930041128</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.011833363395863411</v>
+        <v>-0.023666726791726822</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>0.00091937359739216462</v>
+        <v>0.0018387471947843292</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0068783068783068724</v>
+        <v>0.013756613756613745</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.010440996552107659</v>
+        <v>-0.020881993104215318</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0034816562594340711</v>
+        <v>-0.0069633125188681422</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0015198872341729286</v>
+        <v>-0.0030397744683458572</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>-0.0086919626393310717</v>
+        <v>-0.017383925278662143</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.013545596878930227</v>
+        <v>0.027091193757860454</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.012201110885321401</v>
+        <v>0.024402221770642801</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.013105936819172104</v>
+        <v>-0.026211873638344207</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0079722579722579789</v>
+        <v>0.015944515944515958</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.030200888022525421</v>
+        <v>-0.060401776045050842</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-3.3916700583364046e-05</v>
+        <v>-6.7833401166728091e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.029065719855193559</v>
+        <v>-0.058131439710387117</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.0034844947125649006</v>
+        <v>0.0069689894251298012</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.0069707745146341676</v>
+        <v>0.013941549029268335</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0025259249397180383</v>
+        <v>-0.0050518498794360767</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>-0.008437008437008453</v>
+        <v>-0.016874016874016906</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.0087717587717587864</v>
+        <v>-0.017543517543517573</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>-0.019805519805519797</v>
+        <v>-0.039611039611039595</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.0072172976934881672</v>
+        <v>0.014434595386976334</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.00051278957528959335</v>
+        <v>-0.0010255791505791867</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.0084644481574306374</v>
+        <v>0.016928896314861275</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.013509427795142082</v>
+        <v>-0.027018855590284163</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.00094313819804016374</v>
+        <v>-0.0018862763960803275</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.00070979780801207204</v>
+        <v>0.0014195956160241441</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.00017240989463215839</v>
+        <v>0.00034481978926431678</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.018965919701213821</v>
+        <v>-0.037931839402427642</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.0020412498482673958</v>
+        <v>-0.0040824996965347915</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.01534314180513012</v>
+        <v>-0.03068628361026024</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.023041408755694479</v>
+        <v>0.046082817511388957</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.0052552552552552478</v>
+        <v>-0.010510510510510496</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.0055962555962555949</v>
+        <v>0.01119251119251119</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0011082511082510932</v>
+        <v>-0.0022165022165021864</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0076467624086671987</v>
+        <v>0.015293524817334397</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.030499393402619174</v>
+        <v>0.060998786805238348</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.034739104183548628</v>
+        <v>0.069478208367097255</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0069113756613756738</v>
+        <v>-0.013822751322751348</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>-0.025322458732596975</v>
+        <v>-0.05064491746519395</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0070028011204481683</v>
+        <v>-0.014005602240896337</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0087719298245613891</v>
+        <v>-0.017543859649122778</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.0072719239385906215</v>
+        <v>0.014543847877181243</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0012909735131957228</v>
+        <v>-0.0025819470263914457</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.0017609382934460349</v>
+        <v>-0.0035218765868920698</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.022774815631958517</v>
+        <v>0.045549631263917034</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.01923351923351925</v>
+        <v>-0.0384670384670385</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0124758687258687</v>
+        <v>0.024951737451737399</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.0043766981266981086</v>
+        <v>-0.0087533962533962173</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.011594928261594917</v>
+        <v>-0.023189856523189833</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.012203274703274689</v>
+        <v>0.024406549406549377</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.013359788359788322</v>
+        <v>0.026719576719576643</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.0063785590101379241</v>
+        <v>-0.012757118020275848</v>
       </c>
     </row>
   </sheetData>
